--- a/excel/项目.xlsx
+++ b/excel/项目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19260" windowHeight="9900" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19260" windowHeight="9900" tabRatio="774" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工程公司项目" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,11 @@
     <sheet name="engprojs" sheetId="4" r:id="rId4"/>
     <sheet name="netprojs" sheetId="5" r:id="rId5"/>
     <sheet name="munprojs" sheetId="6" r:id="rId6"/>
+    <sheet name="维护项目" sheetId="11" r:id="rId7"/>
+    <sheet name="材料表(管道)" sheetId="7" r:id="rId8"/>
+    <sheet name="材料表(光缆)" sheetId="8" r:id="rId9"/>
+    <sheet name="施工队工作量表（光缆）" sheetId="9" r:id="rId10"/>
+    <sheet name="施工队工作量表（管道）" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1114,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1139,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>是</t>
+          <t>未开工</t>
         </r>
         <r>
           <rPr>
@@ -1154,7 +1159,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>否</t>
+          <t>在建</t>
         </r>
         <r>
           <rPr>
@@ -1164,20 +1169,104 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>完工</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>受阻</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>无法实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（办理中/管照已上交/情况说明已上交/无需办理)</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>(</t>
         </r>
         <r>
@@ -1269,120 +1358,6 @@
             <charset val="134"/>
           </rPr>
           <t>站点取消</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>未开工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在建</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>完工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>受阻</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>无法实施</t>
         </r>
         <r>
           <rPr>
@@ -1403,20 +1378,1156 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>（办理中/管照已上交/情况说明已上交/无需办理)</t>
-        </r>
-        <r>
-          <rPr>
+          <t>实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>调整</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传输已达</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>地址错误</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>站点取消</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>韩竹君</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>调整</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传输已达</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>地址错误</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>站点取消</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>未开工</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在建</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>完工</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>受阻</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>无法实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>韩竹君</author>
+    <author>微软用户</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>管道</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>光缆</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设备</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>客户端</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中移、联通</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>未开工</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在建</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>完工</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>受阻</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>无法实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（办理中/管照已上交/情况说明已上交/无需办理)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>调整</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传输已达</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>地址错误</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>站点取消</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>调整</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传输已达</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>地址错误</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>站点取消</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>管道</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>光缆</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>设备</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>客户端</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>调整</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传输已达</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>地址错误</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>站点取消</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>未开工</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在建</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>完工</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>受阻</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>无法实施</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -1425,7 +2536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="406">
   <si>
     <t>序号</t>
   </si>
@@ -1985,10 +3096,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数字自增 1，2，3，4…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>secondpartyofficer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2081,10 +3188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下拉列表：中邮通,中移,邮电,广越,东冠,和勤,电信,久豪,贝电,海润,中通二局,翔发,辉程,龙盛,明嬴,盛脉,通福,万程,信辰,远鹰,阅龙,置诚,兆康,兴霸,飞利,和联,鸿维,嘉正,炜晟,新周,信潮,众托,共联,中福,长安,都顺,联音,商美,英得,亚通,邮顺,渝华,忠吕,中铁,天达,虹鹰,兴和,云沪,雨花,晟平,秦禧,立天,中通一局,博索,富悦,廉创,润风,海剑,宏晋,米赛,伟琳,骥通,北京工程局,景合,海缆,煜菱,鸿达</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>时间输入框 格式：年\月\日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2117,10 +3220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认值：预覆盖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>applytime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2142,27 +3241,266 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下拉列表：已领,未领</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主材料金额（乙供）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>materialget</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>materialamount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>materialuse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接到施工队工作量表格，表格格式需提供</t>
+    <t>数字输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工情况信息(CONSTRUCTION_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间输入框 格式：年\月\日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comptextrectime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comptextcommittime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：已反馈,未反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compmatres</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compmatcommittime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同信息(CONTRACT_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同签订情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款收款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同签订日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractstatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：已签订,未签订</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contracttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同总金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepayindate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepayoutdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outcome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收款-施工队结款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入信息(INCOME_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑要确认一下，是计算利润吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字自增 GC20150308001，2，3，4…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：预覆盖,光交网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialtable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24芯光缆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48芯光缆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列可增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨胀螺丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镀锌铁线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲供</t>
+  </si>
+  <si>
+    <t>项目A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据工程属性区分管道和光缆材料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框（如何计算和展示需讨论）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料信息(TEXT_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理验收情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervacptstatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工情况信息(CONSTRUCTION_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理验收问题反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervacceptres</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方验收情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstpartyacptstatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管照办理情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isadmin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：办理中,管照已上交,情况说明已上交,无需办理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队工作量（表格）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2170,23 +3508,295 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工作量信息(WORK_INFO)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>配合费（上传发票）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>withfee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框,后接附件上传按钮上传发票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选线费（上传发票）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linefee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟测费（上传发票）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testfee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入框，textarea大框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructstatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：未开工,在建,完工,受阻,无法实施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工情况简述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructdesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计完工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectfinishtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间输入框 格式：年\月\日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructbegintime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个页面加备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间输入框 格式：年\月\日  （附件上传）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工资料施工队上交时间（附件）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工文本提交日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>链接到施工队工作量表格，区分光缆和管道，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表格格式需提供</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isinspect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同信息(CONTRACT_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：是,否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送审日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspecttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审定金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspectamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>数字输入框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数字输入框,后接附件上传按钮上传发票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉列表：是,否</t>
+    <t>尾款收款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度款收款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已送审（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收款-施工队结款-其他费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherfee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息（BASIC_INFO）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入信息(INCOME_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队结款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息（BASIC_INFO）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方项目负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方项目负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开工,在建,完工,受阻,无法实施,传输已达,地址错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工资料是否收到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方验收情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：抢修,大修,小修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施原因</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2194,79 +3804,139 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文本输入框，textarea大框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选线费（上传发票）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>withfee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>linefee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟测费（上传发票）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testfee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否办理管照</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工情况信息(CONSTRUCTION_INFO)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉列表：办理中,管照已上交,情况说明已上交,无需办理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本输入框，textarea大框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>constructstatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>finishtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectfinishtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>constructdesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>constructbegintime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间输入框 格式：年\月\日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉列表：未开工,在建,完工,受阻,无法实施</t>
+    <t>serialno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自增数字20150308001 2 3 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工图纸收到日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送审日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票金额（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队工作量表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接到施工队工作量表格，区分光缆和管道，表格格式需提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：中邮通,中移,邮电,广越,东冠,和勤,电信,久豪,贝电,海润,中通二局,翔发,辉程,龙盛,明嬴,盛脉,通福,万程,信辰,远鹰,阅龙,置诚,兆康,兴霸,飞利,和联,鸿维,嘉正,炜晟,新周,信潮,众托,共联,中福,长安,都顺,联音,商美,英得,亚通,邮顺,渝华,忠吕,中铁,天达,虹鹰,兴和,云沪,雨花,晟平,秦禧,立天,中通一局,博索,富悦,廉创,润风,海剑,宏晋,米赛,伟琳,骥通,北京工程局,景合,海缆,煜菱,鸿达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受控编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方项目负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主材料使用（乙供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料信息(MATERIAL_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接到材料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主材料金额（乙供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料信息(TEXT_INFO)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2274,187 +3944,190 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>iscomtext</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comptextrectime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comptextcommittime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉列表：已反馈,未反馈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>compmatres</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>compmatcommittime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscompmat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和后面的管照办理情况放一起？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isadminlicense</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isadmin</t>
-  </si>
-  <si>
-    <t>监理验收情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收信息（ACCEPT_INFO）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验收信息（ACCEPT_INFO）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>supervacptstatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>supervacceptres</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstpartyacptstatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同信息(CONTRACT_INFO)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同签订情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预付款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预付款收款日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同签订日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractstatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉列表：已签订,未签订</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contracttime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件上传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同总金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractamount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字输入框,后接附件上传按钮上传发票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prepay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预付款开票日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prepayindate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prepayoutdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>送审信息（INSPECTION_INFO）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>送审信息（INSPECTION_INFO）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isinspect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inspecttime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inspectamount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉列表：是,否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>income</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>outcome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际收款-施工队结款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入信息(INCOME_INFO)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>profit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑要确认一下，是计算利润吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>竣工文本收到日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工文本提交日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方对竣工资料的反馈情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工资料（施工队给乙方）提交时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>割接报告申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>割接报告申请日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>割接日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队工作量（表格）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接到工作量表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方合同金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方是否已收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方合同签订日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方合同金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方送审日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方审定金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同文本（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同签订日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否转其他公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是：全部展示  否：隐藏乙方信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方预付款\进度款\尾款开票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方预付款\进度款\尾款到款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方预付款\进度款\尾款到款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同预付款\进度款\尾款开票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同预付款\进度款\尾款到款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同预付款\进度款\尾款到款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方预付款\进度款\尾款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同预付款\进度款\尾款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司送审日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司审定金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +4138,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2588,8 +4261,49 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2652,13 +4366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2751,7 +4459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2873,13 +4581,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2894,9 +4595,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2906,23 +4604,8 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2930,35 +4613,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2967,29 +4625,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3297,8 +4982,8 @@
   </sheetPr>
   <dimension ref="A1:IO11"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BG3" sqref="BG3"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4072,7 +5757,7 @@
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
       <c r="BG3" s="21" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="BH3" s="9"/>
       <c r="BI3" s="9"/>
@@ -4285,7 +5970,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>22</v>
@@ -6535,6 +8220,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -6543,7 +8256,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7078,7 +8791,7 @@
   <dimension ref="A1:IP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9903,41 +11616,41 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58:D59"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="21" style="31" customWidth="1"/>
     <col min="3" max="3" width="35.875" style="31" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E1" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -9945,14 +11658,14 @@
         <v>146</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>88</v>
       </c>
@@ -9960,14 +11673,14 @@
         <v>138</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>90</v>
       </c>
@@ -9975,14 +11688,14 @@
         <v>139</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>81</v>
       </c>
@@ -9990,14 +11703,14 @@
         <v>140</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>85</v>
       </c>
@@ -10005,836 +11718,836 @@
         <v>141</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="35" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="34" t="s">
+      <c r="B14" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>165</v>
-      </c>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="32" t="s">
+      <c r="B16" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" s="35" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" s="37" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="32" t="s">
+      <c r="B18" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>170</v>
-      </c>
       <c r="C18" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5" s="35" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="C21" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:5" s="37" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="E21" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="C22" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="36" t="s">
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="48"/>
-    </row>
-    <row r="23" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="48"/>
-    </row>
-    <row r="24" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="36" t="s">
+      <c r="C25" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="48"/>
-    </row>
-    <row r="25" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="48"/>
-    </row>
-    <row r="26" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" s="48"/>
-    </row>
-    <row r="27" spans="1:5" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="44"/>
-    </row>
-    <row r="28" spans="1:5" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="44" t="s">
+      <c r="D30" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="44"/>
+    </row>
+    <row r="33" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="1:5" s="47" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="E28" s="44"/>
-    </row>
-    <row r="29" spans="1:5" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="44"/>
-    </row>
-    <row r="30" spans="1:5" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="44"/>
-    </row>
-    <row r="31" spans="1:5" s="58" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="44"/>
-    </row>
-    <row r="33" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="54"/>
-    </row>
-    <row r="35" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" s="54"/>
-    </row>
-    <row r="36" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" s="54"/>
-    </row>
-    <row r="37" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" s="54"/>
-    </row>
-    <row r="38" spans="1:5" s="37" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="39" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="44"/>
+    </row>
+    <row r="37" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="44"/>
+    </row>
+    <row r="38" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A39" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" s="53" t="s">
+      <c r="B39" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="57"/>
+    </row>
+    <row r="40" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="57"/>
+    </row>
+    <row r="41" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="57"/>
+    </row>
+    <row r="42" spans="1:5" s="35" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="57"/>
+    </row>
+    <row r="43" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="57"/>
+    </row>
+    <row r="44" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="37"/>
+    </row>
+    <row r="46" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="37"/>
+    </row>
+    <row r="47" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="37"/>
+    </row>
+    <row r="48" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" s="54"/>
-    </row>
-    <row r="40" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="53" t="s">
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="37"/>
+    </row>
+    <row r="50" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="37"/>
+    </row>
+    <row r="51" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="37"/>
+    </row>
+    <row r="52" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+    </row>
+    <row r="55" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+    </row>
+    <row r="56" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="37"/>
+    </row>
+    <row r="57" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E57" s="37"/>
+    </row>
+    <row r="58" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E40" s="54"/>
-    </row>
-    <row r="41" spans="1:5" s="37" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="53" t="s">
+      <c r="E59" s="43"/>
+    </row>
+    <row r="60" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="54"/>
-    </row>
-    <row r="42" spans="1:5" s="37" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="54"/>
-    </row>
-    <row r="43" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="E43" s="54"/>
-    </row>
-    <row r="44" spans="1:5" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="61"/>
-    </row>
-    <row r="45" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45" s="64"/>
-    </row>
-    <row r="46" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="64"/>
-    </row>
-    <row r="47" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="E47" s="64"/>
-    </row>
-    <row r="48" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="E48" s="39"/>
-    </row>
-    <row r="49" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="39"/>
-    </row>
-    <row r="50" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E50" s="39"/>
-    </row>
-    <row r="51" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="E51" s="39"/>
-    </row>
-    <row r="52" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="39"/>
-    </row>
-    <row r="53" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="E53" s="39"/>
-    </row>
-    <row r="54" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="E54" s="39"/>
-    </row>
-    <row r="55" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="D55" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="E55" s="67"/>
-    </row>
-    <row r="56" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="D56" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="E56" s="67"/>
-    </row>
-    <row r="57" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="D57" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="67"/>
-    </row>
-    <row r="58" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E58" s="51"/>
-    </row>
-    <row r="59" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="C59" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="D59" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E59" s="51"/>
-    </row>
-    <row r="60" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="D60" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" s="69" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
+      <c r="E60" s="43"/>
+    </row>
+    <row r="61" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="43"/>
+    </row>
+    <row r="62" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="33"/>
@@ -11400,9 +13113,15 @@
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="33"/>
     </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="33"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="E21:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11412,10 +13131,2405 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="58"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:E118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="42.25" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="42.25" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="123.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="44"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="44"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="44"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="57"/>
+    </row>
+    <row r="40" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="57"/>
+    </row>
+    <row r="41" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="57"/>
+    </row>
+    <row r="42" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="57"/>
+    </row>
+    <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="57"/>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+      <c r="A44" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="37"/>
+    </row>
+    <row r="46" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="37"/>
+    </row>
+    <row r="47" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="37"/>
+    </row>
+    <row r="48" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="37"/>
+    </row>
+    <row r="50" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="37"/>
+    </row>
+    <row r="51" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="37"/>
+    </row>
+    <row r="52" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A52" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+    </row>
+    <row r="53" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+    </row>
+    <row r="54" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A54" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+    </row>
+    <row r="55" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A55" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+    </row>
+    <row r="56" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A56" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="37"/>
+    </row>
+    <row r="57" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A57" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E57" s="37"/>
+    </row>
+    <row r="58" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A58" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="43"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="43"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="43"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" s="34"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+    </row>
+    <row r="88" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+    </row>
+    <row r="89" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+    </row>
+    <row r="90" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57"/>
+    </row>
+    <row r="91" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+    </row>
+    <row r="92" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
+    </row>
+    <row r="93" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="E94" s="57"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="E97" s="37"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+    </row>
+    <row r="109" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E115" s="43"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E116" s="43"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E117" s="43"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E118" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E21:E25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="K4" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="L4" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="N4" s="63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="K5" t="s">
+        <v>390</v>
+      </c>
+      <c r="L5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="K6" t="s">
+        <v>395</v>
+      </c>
+      <c r="L6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M6">
+        <v>200</v>
+      </c>
+      <c r="N6">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="K7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="K8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="K9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="K10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="K11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="K12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="K13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="K14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="K15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="K16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11425,22 +15539,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/项目.xlsx
+++ b/excel/项目.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19260" windowHeight="9900" tabRatio="774" activeTab="6"/>
+    <workbookView xWindow="3840" yWindow="30" windowWidth="19260" windowHeight="9900" tabRatio="774" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="工程公司项目" sheetId="1" r:id="rId1"/>
-    <sheet name="网络部项目" sheetId="2" r:id="rId2"/>
-    <sheet name="市政项目" sheetId="3" r:id="rId3"/>
-    <sheet name="engprojs" sheetId="4" r:id="rId4"/>
-    <sheet name="netprojs" sheetId="5" r:id="rId5"/>
-    <sheet name="munprojs" sheetId="6" r:id="rId6"/>
+    <sheet name="工程公司项目_原" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="网络部项目_原" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="市政项目_原" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="工程公司项目" sheetId="4" r:id="rId4"/>
+    <sheet name="网络部项目" sheetId="5" r:id="rId5"/>
+    <sheet name="市政项目" sheetId="6" r:id="rId6"/>
     <sheet name="维护项目" sheetId="11" r:id="rId7"/>
     <sheet name="材料表(管道)" sheetId="7" r:id="rId8"/>
     <sheet name="材料表(光缆)" sheetId="8" r:id="rId9"/>
@@ -1003,1540 +1003,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>韩竹君</author>
-    <author>微软用户</author>
-  </authors>
-  <commentList>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>管道</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>光缆</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>设备</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>客户端</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>中移、联通</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>未开工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在建</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>完工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>受阻</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>无法实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>（办理中/管照已上交/情况说明已上交/无需办理)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>调整</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传输已达</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>地址错误</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>站点取消</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>调整</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传输已达</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>地址错误</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>站点取消</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>韩竹君</author>
-  </authors>
-  <commentList>
-    <comment ref="A15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>调整</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传输已达</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>地址错误</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>站点取消</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>未开工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在建</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>完工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>受阻</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>无法实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>韩竹君</author>
-    <author>微软用户</author>
-  </authors>
-  <commentList>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>管道</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>光缆</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>设备</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>客户端</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>中移、联通</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>未开工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在建</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>完工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>受阻</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>无法实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>（办理中/管照已上交/情况说明已上交/无需办理)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>调整</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传输已达</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>地址错误</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>站点取消</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>调整</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传输已达</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>地址错误</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>站点取消</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A69" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>管道</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>光缆</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>设备</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>客户端</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A82" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>调整</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传输已达</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>地址错误</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>站点取消</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A83" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>未开工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在建</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>完工</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>受阻</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>无法实施</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="518">
   <si>
     <t>序号</t>
   </si>
@@ -3208,10 +1676,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>materialoffer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>下拉列表：甲供,乙供</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3365,10 +1829,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑要确认一下，是计算利润吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数字自增 GC20150308001，2，3，4…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3504,14 +1964,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>worktable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合费（上传发票）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>withfee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3520,18 +1972,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>选线费（上传发票）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>linefee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>跟测费（上传发票）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>testfee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3581,10 +2025,6 @@
   </si>
   <si>
     <t>开工时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>constructbegintime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3764,15 +2204,485 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>下拉列表：抢修,大修,小修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工图纸收到日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送审日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票金额（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：中邮通,中移,邮电,广越,东冠,和勤,电信,久豪,贝电,海润,中通二局,翔发,辉程,龙盛,明嬴,盛脉,通福,万程,信辰,远鹰,阅龙,置诚,兆康,兴霸,飞利,和联,鸿维,嘉正,炜晟,新周,信潮,众托,共联,中福,长安,都顺,联音,商美,英得,亚通,邮顺,渝华,忠吕,中铁,天达,虹鹰,兴和,云沪,雨花,晟平,秦禧,立天,中通一局,博索,富悦,廉创,润风,海剑,宏晋,米赛,伟琳,骥通,北京工程局,景合,海缆,煜菱,鸿达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受控编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方项目负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监理负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料信息(MATERIAL_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接到材料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主材料金额（乙供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工文本（甲方下发）收到情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工文本收到日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工文本提交日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方对竣工资料的反馈情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工资料（施工队给乙方）提交时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>割接报告申请日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>割接日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队工作量（表格）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方合同金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方是否已收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方合同签订日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方合同金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方送审日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方审定金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同文本（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同签订日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是：全部展示  否：隐藏乙方信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司送审日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司审定金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>乙方尾款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方预付款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方预付款开票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方进度款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方进度款开票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方尾款开票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propayindate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propayoutdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalpayindate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalpayoutdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>基本信息（BASIC_INFO）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basiccomments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialcomments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入框，textarea大框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>textcomments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractcomments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入框，textarea大框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incomecomments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入框，textarea大框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合费（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选线费（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟测费（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方预付款到款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方预付款到款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方进度款到款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方进度款到款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方尾款到款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方尾款到款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同预付款开票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同进度款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同进度款开票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同预付款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同尾款开票日期（附件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同尾款开票金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同预付款到款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同预付款到款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同进度款到款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我公司合同进度款到款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否转其他公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“是否转其他公司”为否是隐藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>billno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstpartyofficer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyofficer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constrctteam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constrctofficer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>立项情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未开工,在建,完工,受阻,无法实施,传输已达,地址错误</t>
+    <t>situation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3780,7 +2690,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>竣工资料是否收到</t>
+    <t>constructbegintime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructbegintime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>textreceivetime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3788,15 +2714,122 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下拉列表：抢修,大修,小修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施原因</t>
+    <t>firstpartyacptstatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspecttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basiccomments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：未开工,在建,完工,受阻,无法实施,传输已达,地址错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框</t>
+  </si>
+  <si>
+    <t>数字输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>voiceamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框带附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incomecomments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队工作量表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worktable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入信息(INCOME_INFO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接到施工队工作量表格，区分光缆和管道，表格格式需提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入框，textarea大框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字自增 SZ20150308001，2，3，4…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字自增 WL20150308001，2，3，4…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isstatis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：是,否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主材料使用（乙供）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialoffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialoffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialamont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>割接报告申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeoverreport</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3804,47 +2837,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>serialno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">自增数字20150308001 2 3 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工图纸收到日期（附件）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>送审日期（附件）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开票金额（附件）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工队工作量表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接到施工队工作量表格，区分光缆和管道，表格格式需提供</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工队</t>
+    <t>changeoverreportapplytime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeovertime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>begintime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructioncomments</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3852,282 +2861,188 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受控编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方项目负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>监理单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>监理负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主材料使用（乙供）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料信息(MATERIAL_INFO)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接到材料表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主材料金额（乙供）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料信息(TEXT_INFO)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工文本（甲方下发）收到情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工文本收到日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工文本提交日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方对竣工资料的反馈情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工资料（施工队给乙方）提交时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>割接报告申请</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>割接报告申请日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>割接日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工队工作量（表格）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接到工作量表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方合同金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方是否已收款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方合同签订日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方合同金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方送审日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方审定金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同文本（附件）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我公司合同签订日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我公司合同款金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否转其他公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是：全部展示  否：隐藏乙方信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方预付款\进度款\尾款开票金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方预付款\进度款\尾款到款日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方预付款\进度款\尾款到款金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我公司合同预付款\进度款\尾款开票金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我公司合同预付款\进度款\尾款到款日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我公司合同预付款\进度款\尾款到款金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方预付款\进度款\尾款开票日期（附件）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我公司合同预付款\进度款\尾款开票日期（附件）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我公司送审日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我公司审定金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闵行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
+    <t>时间输入框 格式：年\月\日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>textsubmittime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间输入框 格式：年\月\日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compsubmittime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表：是,否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isreceived</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>worktable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstpartycontractyamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstpartyisreceived</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartycontracttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartycontractamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyaudittime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyauditamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyprepaytime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyprepayamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyprocetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyproceamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyfinaltime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyfinalamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartypropaytime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartypropayamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyfinalpaytime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyfinalpayaount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contracttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contracttext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepayvoicetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepayvoiceamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propayvoicetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propayvoiceamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalpayvoicetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalpayvoiceamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepayouttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepayoutamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propayouttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propayoutamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audittime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditamount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间输入框 格式：年\月\日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件上传按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4138,7 +3053,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4233,14 +3148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -4303,7 +3210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4367,6 +3274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4459,7 +3372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4619,35 +3532,29 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4657,24 +3564,42 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4983,7 +3908,7 @@
   <dimension ref="A1:IO11"/>
   <sheetViews>
     <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:AT6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5757,7 +4682,7 @@
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
       <c r="BG3" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BH3" s="9"/>
       <c r="BI3" s="9"/>
@@ -8225,7 +7150,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8256,7 +7181,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8791,7 +7716,7 @@
   <dimension ref="A1:IP10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BH1"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11612,15 +10537,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11647,7 +10572,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
@@ -11661,7 +10586,7 @@
         <v>174</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E2" s="32"/>
     </row>
@@ -11751,7 +10676,7 @@
         <v>174</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -11825,7 +10750,7 @@
       <c r="C13" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="53" t="s">
         <v>163</v>
       </c>
       <c r="E13" s="32"/>
@@ -11901,7 +10826,7 @@
         <v>174</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E18" s="32"/>
     </row>
@@ -11928,679 +10853,745 @@
         <v>173</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>174</v>
+        <v>387</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>171</v>
       </c>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" s="35" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" s="35" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="36" t="s">
-        <v>70</v>
-      </c>
       <c r="B22" s="34" t="s">
-        <v>179</v>
+        <v>460</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="51"/>
+        <v>176</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A23" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="51"/>
+        <v>181</v>
+      </c>
+      <c r="E23" s="62"/>
     </row>
     <row r="24" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A24" s="36" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="51"/>
+        <v>182</v>
+      </c>
+      <c r="E24" s="62"/>
     </row>
     <row r="25" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A25" s="36" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="51"/>
+      <c r="D25" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="E26" s="45"/>
+      <c r="A26" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="62"/>
     </row>
     <row r="27" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="E27" s="45"/>
+      <c r="A27" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A28" s="44" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A29" s="44" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A30" s="44" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E30" s="45"/>
     </row>
     <row r="31" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>240</v>
-      </c>
       <c r="D31" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="44"/>
+        <v>262</v>
+      </c>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="44" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="44"/>
+        <v>262</v>
+      </c>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="44"/>
+    </row>
+    <row r="35" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="1:5" s="47" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B36" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="44"/>
-    </row>
-    <row r="34" spans="1:5" s="47" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="44" t="s">
+      <c r="C36" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="E34" s="46"/>
-    </row>
-    <row r="35" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" s="44"/>
-    </row>
-    <row r="36" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="44"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A37" s="44" t="s">
-        <v>256</v>
+        <v>397</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A38" s="44" t="s">
-        <v>258</v>
+        <v>398</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E38" s="44"/>
     </row>
-    <row r="39" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="56" t="s">
+    <row r="39" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="44"/>
+    </row>
+    <row r="40" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="44"/>
+    </row>
+    <row r="41" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B41" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="57"/>
-    </row>
-    <row r="40" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="57"/>
-    </row>
-    <row r="41" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="B41" s="57" t="s">
+      <c r="C43" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="E41" s="57"/>
-    </row>
-    <row r="42" spans="1:5" s="35" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="57"/>
-    </row>
-    <row r="43" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="E43" s="57"/>
-    </row>
-    <row r="44" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="37"/>
-    </row>
-    <row r="46" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="37"/>
+      <c r="E44" s="55"/>
+    </row>
+    <row r="45" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="55"/>
+    </row>
+    <row r="46" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A47" s="37" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A48" s="37" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A49" s="37" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A50" s="37" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A51" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E51" s="37"/>
     </row>
-    <row r="52" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A52" s="37" t="s">
-        <v>289</v>
+        <v>281</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>206</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="37"/>
+    </row>
+    <row r="53" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A53" s="37" t="s">
-        <v>287</v>
+        <v>196</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="37"/>
+    </row>
+    <row r="54" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A54" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B54" s="37"/>
+        <v>282</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>382</v>
+      </c>
       <c r="C54" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-    </row>
-    <row r="55" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A55" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B55" s="37"/>
+        <v>280</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>383</v>
+      </c>
       <c r="C55" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
+        <v>193</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="56" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A56" s="37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A57" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>282</v>
+        <v>385</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A58" s="37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59" s="43"/>
+      <c r="A59" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="E60" s="43"/>
+      <c r="A60" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="43"/>
+      <c r="A61" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E61" s="30"/>
     </row>
     <row r="62" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A62" s="48" t="s">
-        <v>292</v>
+        <v>62</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C62" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="43"/>
+    </row>
+    <row r="63" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" s="43"/>
+    </row>
+    <row r="64" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="43"/>
+    </row>
+    <row r="65" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C65" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" s="49"/>
+    </row>
+    <row r="66" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="E66" s="49"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="33"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="33"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="33"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="33"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="33"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="33"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="33"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="33"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="33"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="33"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="33"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="33"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="33"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="33"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
@@ -13119,26 +12110,37 @@
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="33"/>
     </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="33"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="33"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="33"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="E22:E26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13164,60 +12166,72 @@
         <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>323</v>
+        <v>454</v>
       </c>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="32"/>
+        <v>295</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>418</v>
+      </c>
       <c r="C3" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="32"/>
+        <v>296</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>419</v>
+      </c>
       <c r="C4" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="32"/>
+        <v>297</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>420</v>
+      </c>
       <c r="C5" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>150</v>
@@ -13233,301 +12247,387 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="32"/>
+        <v>307</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>421</v>
+      </c>
       <c r="C8" s="32" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="32"/>
+        <v>301</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>422</v>
+      </c>
       <c r="C10" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="32"/>
+        <v>302</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>423</v>
+      </c>
       <c r="C11" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>163</v>
+      </c>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="32"/>
+        <v>315</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>424</v>
+      </c>
       <c r="C12" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" s="32"/>
+        <v>303</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>425</v>
+      </c>
       <c r="C13" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="32"/>
+        <v>304</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>173</v>
+      </c>
       <c r="C14" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D14" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="32"/>
+        <v>426</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>427</v>
+      </c>
       <c r="C15" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>438</v>
+      </c>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" s="32"/>
+        <v>428</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>430</v>
+      </c>
       <c r="C16" s="32" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="32"/>
+        <v>431</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>432</v>
+      </c>
       <c r="C17" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="32"/>
+        <v>310</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>433</v>
+      </c>
       <c r="C18" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="32"/>
+        <v>434</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>435</v>
+      </c>
       <c r="C19" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" s="32"/>
+        <v>311</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>436</v>
+      </c>
       <c r="C20" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="32"/>
+        <v>294</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="B21" s="32"/>
+        <v>394</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>437</v>
+      </c>
       <c r="C21" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="32"/>
+        <v>174</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>390</v>
+      </c>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="B22" s="42"/>
+        <v>439</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>440</v>
+      </c>
       <c r="C22" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="42"/>
+        <v>290</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>442</v>
+      </c>
       <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="B23" s="42"/>
+        <v>312</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>443</v>
+      </c>
       <c r="C23" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" s="42"/>
+        <v>290</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>442</v>
+      </c>
       <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="42"/>
+        <v>313</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>444</v>
+      </c>
       <c r="C24" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="D24" s="42"/>
+        <v>290</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>445</v>
+      </c>
       <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="42" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25" s="42"/>
+        <v>290</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>442</v>
+      </c>
       <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="42" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="42"/>
+        <v>212</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>442</v>
+      </c>
       <c r="E26" s="42"/>
     </row>
-    <row r="27" spans="1:5" s="59" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="E27" s="58"/>
+    <row r="27" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="42" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" s="42"/>
+        <v>212</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>442</v>
+      </c>
       <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="42" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="42"/>
+        <v>290</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>442</v>
+      </c>
       <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="E30" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.25" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="42.25" customWidth="1"/>
+    <col min="4" max="4" width="46.875" customWidth="1"/>
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13545,42 +12645,42 @@
         <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>146</v>
+        <v>452</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>216</v>
+        <v>453</v>
       </c>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>138</v>
+        <v>455</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>174</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>158</v>
+        <v>456</v>
       </c>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>139</v>
@@ -13593,9 +12693,9 @@
       </c>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>140</v>
@@ -13608,9 +12708,9 @@
       </c>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>85</v>
+        <v>321</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>141</v>
@@ -13623,84 +12723,84 @@
       </c>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>174</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>1</v>
+        <v>323</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>2</v>
+        <v>324</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>174</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>151</v>
+        <v>457</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>158</v>
       </c>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>152</v>
+        <v>458</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>158</v>
       </c>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>153</v>
@@ -13713,9 +12813,9 @@
       </c>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" ht="123.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>5</v>
+        <v>328</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>154</v>
@@ -13723,14 +12823,14 @@
       <c r="C13" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="53" t="s">
         <v>163</v>
       </c>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>156</v>
@@ -13743,9 +12843,9 @@
       </c>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>157</v>
@@ -13758,9 +12858,9 @@
       </c>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>159</v>
+        <v>331</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>167</v>
@@ -13773,9 +12873,9 @@
       </c>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>166</v>
@@ -13788,9 +12888,9 @@
       </c>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>169</v>
@@ -13799,1305 +12899,856 @@
         <v>174</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>333</v>
+        <v>471</v>
       </c>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
-        <v>46</v>
+        <v>394</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>170</v>
+        <v>388</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>174</v>
+        <v>387</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>158</v>
+        <v>390</v>
       </c>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="32"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
-        <v>69</v>
+      <c r="A21" s="34" t="s">
+        <v>336</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>180</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="34" t="s">
+      <c r="A22" s="66" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="E22" s="66"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="E23" s="66"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="E24" s="66"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="51"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="34" t="s">
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>472</v>
+      </c>
+      <c r="E26" s="66"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>470</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="66"/>
+    </row>
+    <row r="28" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="E24" s="51"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="34" t="s">
+      <c r="D28" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="E28" s="55"/>
+    </row>
+    <row r="29" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="E29" s="55"/>
+    </row>
+    <row r="30" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>475</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" s="55"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>480</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="55"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="E35" s="37"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" s="37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="63" t="s">
+        <v>404</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54" s="37"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="E55" s="37"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E56" s="37"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="63" t="s">
+        <v>409</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E57" s="37"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E59" s="37"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E60" s="37"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E61" s="37"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E62" s="37"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E63" s="37"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E64" s="37"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E65" s="37"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="63" t="s">
+        <v>415</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E66" s="37"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E67" s="37"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E68" s="37"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="E26" s="45"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="E27" s="45"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E28" s="45"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E29" s="45"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E30" s="45"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="44"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="44"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="44"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="E34" s="46"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" s="44"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="44"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37" s="44"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="E38" s="44"/>
-    </row>
-    <row r="39" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" s="57"/>
-    </row>
-    <row r="40" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="57"/>
-    </row>
-    <row r="41" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="56" t="s">
-        <v>276</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="E41" s="57"/>
-    </row>
-    <row r="42" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="57"/>
-    </row>
-    <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="E43" s="57"/>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.15">
-      <c r="A44" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A45" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="37"/>
-    </row>
-    <row r="46" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="37"/>
-    </row>
-    <row r="47" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A47" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="37"/>
-    </row>
-    <row r="48" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A48" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="37"/>
-    </row>
-    <row r="49" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A49" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="37"/>
-    </row>
-    <row r="50" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A50" s="37" t="s">
+      <c r="E69" s="43"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="43"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="B50" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="37"/>
-    </row>
-    <row r="51" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A51" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="37"/>
-    </row>
-    <row r="52" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-    </row>
-    <row r="53" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-    </row>
-    <row r="54" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-    </row>
-    <row r="55" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="37" t="s">
+      <c r="C71" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="43"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-    </row>
-    <row r="56" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A56" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="E56" s="37"/>
-    </row>
-    <row r="57" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A57" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="E57" s="37"/>
-    </row>
-    <row r="58" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A58" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="E58" s="37"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" s="43"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E60" s="43"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="43"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="E80" s="34"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-    </row>
-    <row r="88" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-    </row>
-    <row r="89" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-    </row>
-    <row r="90" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="57" t="s">
-        <v>358</v>
-      </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
-    </row>
-    <row r="91" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57" t="s">
-        <v>359</v>
-      </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-    </row>
-    <row r="92" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="57" t="s">
-        <v>360</v>
-      </c>
-      <c r="B92" s="57"/>
-      <c r="C92" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
-    </row>
-    <row r="93" spans="1:5" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="57" t="s">
-        <v>364</v>
-      </c>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D94" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="E94" s="57"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="E97" s="37"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="B101" s="37"/>
-      <c r="C101" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="61" t="s">
-        <v>378</v>
-      </c>
-      <c r="B104" s="37"/>
-      <c r="C104" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-    </row>
-    <row r="109" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="61" t="s">
-        <v>384</v>
-      </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="61" t="s">
-        <v>381</v>
-      </c>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-    </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B115" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C115" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E115" s="43"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B116" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C116" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D116" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E116" s="43"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B117" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="C117" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D117" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E117" s="43"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="B118" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C118" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D118" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="E118" s="49"/>
+      <c r="E72" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E21:E25"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -15106,10 +13757,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15121,7 +13772,7 @@
     <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>142</v>
       </c>
@@ -15135,288 +13786,288 @@
         <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
-        <v>389</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="K4" s="62" t="s">
-        <v>387</v>
-      </c>
-      <c r="L4" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="M4" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="N4" s="63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="K5" t="s">
-        <v>390</v>
-      </c>
-      <c r="L5" t="s">
-        <v>391</v>
-      </c>
-      <c r="M5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="G2" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="G3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="N5">
+      <c r="J3">
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="K6" t="s">
-        <v>395</v>
-      </c>
-      <c r="L6" t="s">
-        <v>391</v>
-      </c>
-      <c r="M6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="G4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I4">
         <v>200</v>
       </c>
-      <c r="N6">
+      <c r="J4">
         <v>1300</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="K7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="K8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="K9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="K10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="K11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="K12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="K13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="K14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="K15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="K16" t="s">
-        <v>405</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="G5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="G6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="G7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="G8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="G9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="G10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="G11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="G12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="G13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="G14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15442,55 +14093,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" t="s">
         <v>225</v>
-      </c>
-      <c r="G2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
         <v>231</v>
       </c>
-      <c r="B3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -15498,13 +14149,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G4">
         <v>59</v>
@@ -15512,13 +14163,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
         <v>232</v>
-      </c>
-      <c r="C5" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/excel/项目.xlsx
+++ b/excel/项目.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebstormProjects\oa\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="30" windowWidth="19260" windowHeight="9900" tabRatio="774" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="3840" yWindow="30" windowWidth="19260" windowHeight="9900" tabRatio="774" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工程公司项目_原" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +34,7 @@
     <author>韩竹君</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +444,7 @@
     <author>韩竹君</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -677,7 +682,7 @@
     <author>韩竹君</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -771,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -885,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="495">
   <si>
     <t>序号</t>
   </si>
@@ -1572,10 +1577,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>properties</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1705,10 +1706,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主材料金额（乙供）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>materialamount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1749,18 +1746,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合同签订情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>预付款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>预付款收款日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同签订日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1785,10 +1774,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合同总金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>contractamount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1916,10 +1901,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>监理验收情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>supervacptstatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1932,18 +1913,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>监理验收问题反馈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>supervacceptres</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>甲方验收情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>firstpartyacptstatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1957,10 +1930,6 @@
   </si>
   <si>
     <t>下拉列表：办理中,管照已上交,情况说明已上交,无需办理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工队工作量（表格）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2080,18 +2049,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>送审日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>inspecttime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>审定金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>inspectamount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2304,10 +2265,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>设计负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>监理单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2320,50 +2277,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>材料信息(MATERIAL_INFO)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>链接到材料表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主材料金额（乙供）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工文本（甲方下发）收到情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工文本收到日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工文本提交日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲方对竣工资料的反馈情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>竣工资料（施工队给乙方）提交时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>割接报告申请日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>割接日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工队工作量（表格）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>甲方合同金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2809,18 +2730,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主材料使用（乙供）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>materialoffer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>materialoffer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>materialamont</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2893,10 +2806,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>worktable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3042,6 +2951,10 @@
   </si>
   <si>
     <t>附件上传按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>projtype</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3579,12 +3492,6 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3601,6 +3508,12 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3611,12 +3524,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3658,7 +3574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3693,7 +3609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4682,7 +4598,7 @@
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
       <c r="BG3" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="BH3" s="9"/>
       <c r="BI3" s="9"/>
@@ -10543,9 +10459,9 @@
   </sheetPr>
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10572,7 +10488,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
@@ -10583,10 +10499,10 @@
         <v>146</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E2" s="32"/>
     </row>
@@ -10598,10 +10514,10 @@
         <v>138</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="32"/>
     </row>
@@ -10613,10 +10529,10 @@
         <v>139</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="32"/>
     </row>
@@ -10628,10 +10544,10 @@
         <v>140</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="32"/>
     </row>
@@ -10643,10 +10559,10 @@
         <v>141</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6" s="32"/>
     </row>
@@ -10658,10 +10574,10 @@
         <v>147</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="32"/>
     </row>
@@ -10670,13 +10586,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>149</v>
+        <v>494</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -10685,13 +10601,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -10700,13 +10616,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="32"/>
     </row>
@@ -10715,13 +10631,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="32"/>
     </row>
@@ -10730,13 +10646,13 @@
         <v>66</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="32"/>
     </row>
@@ -10745,28 +10661,28 @@
         <v>5</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>156</v>
-      </c>
       <c r="C14" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="32"/>
     </row>
@@ -10775,58 +10691,58 @@
         <v>44</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>160</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>166</v>
-      </c>
       <c r="C17" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" s="35" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>169</v>
-      </c>
       <c r="C18" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E18" s="32"/>
     </row>
@@ -10835,61 +10751,61 @@
         <v>46</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>173</v>
-      </c>
       <c r="C20" s="32" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="64"/>
+        <v>245</v>
+      </c>
+      <c r="E21" s="62"/>
     </row>
     <row r="22" spans="1:5" s="35" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="C22" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>179</v>
+      <c r="E22" s="66" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
@@ -10897,268 +10813,268 @@
         <v>70</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="62"/>
+        <v>180</v>
+      </c>
+      <c r="E23" s="67"/>
     </row>
     <row r="24" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A24" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="62"/>
+        <v>181</v>
+      </c>
+      <c r="E24" s="67"/>
     </row>
     <row r="25" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A25" s="36" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="62"/>
+        <v>228</v>
+      </c>
+      <c r="E25" s="67"/>
     </row>
     <row r="26" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A26" s="36" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="62"/>
+        <v>229</v>
+      </c>
+      <c r="E26" s="67"/>
     </row>
     <row r="27" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A27" s="36" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="65"/>
+        <v>369</v>
+      </c>
+      <c r="E27" s="63"/>
     </row>
     <row r="28" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A28" s="44" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A29" s="44" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A30" s="44" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E30" s="45"/>
     </row>
     <row r="31" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="44" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="44" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="44" t="s">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A34" s="44" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E34" s="44"/>
     </row>
     <row r="35" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A35" s="44" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:5" s="47" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A36" s="44" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C36" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>238</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>246</v>
       </c>
       <c r="E36" s="46"/>
     </row>
     <row r="37" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A37" s="44" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A38" s="44" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A39" s="44" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E39" s="44"/>
     </row>
     <row r="40" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A40" s="44" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E40" s="44"/>
     </row>
@@ -11167,43 +11083,43 @@
         <v>39</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" s="55"/>
     </row>
     <row r="42" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A42" s="54" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E42" s="55"/>
     </row>
     <row r="43" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A43" s="54" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E43" s="55"/>
     </row>
@@ -11212,75 +11128,75 @@
         <v>50</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E44" s="55"/>
     </row>
     <row r="45" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A45" s="54" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E45" s="55"/>
     </row>
     <row r="46" spans="1:5" s="41" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A46" s="54" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A47" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="B47" s="37" t="s">
-        <v>198</v>
-      </c>
       <c r="C47" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A48" s="37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="37"/>
     </row>
@@ -11289,191 +11205,191 @@
         <v>53</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A50" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="37" t="s">
         <v>203</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>208</v>
       </c>
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A51" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A52" s="37" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E52" s="37"/>
     </row>
     <row r="53" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A53" s="37" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E53" s="37"/>
     </row>
     <row r="54" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A54" s="37" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="37" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A55" s="37" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A56" s="37" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A57" s="37" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A58" s="37" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A59" s="37" t="s">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A60" s="37" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A61" s="37" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E61" s="30"/>
     </row>
@@ -11482,13 +11398,13 @@
         <v>62</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E62" s="43"/>
     </row>
@@ -11497,58 +11413,58 @@
         <v>77</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A64" s="48" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E64" s="43"/>
     </row>
     <row r="65" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A65" s="48" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E65" s="49"/>
     </row>
     <row r="66" spans="1:5" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A66" s="48" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E66" s="49"/>
     </row>
@@ -12128,7 +12044,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12140,7 +12056,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12166,444 +12082,444 @@
         <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>149</v>
+        <v>494</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>294</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>305</v>
       </c>
       <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="42" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="42" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="42" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="42" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="42" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="42" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="67" t="s">
-        <v>394</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>446</v>
+      <c r="A30" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>425</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="E30" s="67"/>
+        <v>430</v>
+      </c>
+      <c r="E30" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12618,8 +12534,8 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12645,471 +12561,471 @@
         <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>149</v>
+        <v>494</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="34" t="s">
-        <v>459</v>
+        <v>73</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>334</v>
+        <v>174</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="34" t="s">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="66" t="s">
-        <v>463</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>464</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>465</v>
-      </c>
-      <c r="E22" s="66"/>
+      <c r="A22" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="E23" s="66"/>
+      <c r="A23" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="E24" s="66"/>
+      <c r="A24" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E24" s="64"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="66"/>
+      <c r="A25" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="E26" s="66"/>
+      <c r="A26" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E26" s="64"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="E27" s="66"/>
+      <c r="A27" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>447</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="E27" s="64"/>
     </row>
     <row r="28" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="55" t="s">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="55" t="s">
-        <v>338</v>
+        <v>39</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="55" t="s">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="55" t="s">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E31" s="55"/>
     </row>
     <row r="32" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="55" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E32" s="55"/>
     </row>
@@ -13118,570 +13034,570 @@
         <v>43</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="55" t="s">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E34" s="55"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="37" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="37" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="37" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E37" s="37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="37" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="37" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="37" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="37" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="37" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="37" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="37" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="B45" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="63" t="s">
-        <v>376</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="63" t="s">
+      <c r="B49" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="B47" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="63" t="s">
-        <v>402</v>
-      </c>
       <c r="B50" s="37" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="63" t="s">
-        <v>403</v>
+      <c r="A51" s="61" t="s">
+        <v>382</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="63" t="s">
-        <v>404</v>
+      <c r="A52" s="61" t="s">
+        <v>383</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="63" t="s">
-        <v>405</v>
+      <c r="A53" s="61" t="s">
+        <v>384</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="37" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E54" s="37"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="37" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="E55" s="37"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="37" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="63" t="s">
-        <v>409</v>
+      <c r="A57" s="61" t="s">
+        <v>388</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="63" t="s">
-        <v>406</v>
+      <c r="A58" s="61" t="s">
+        <v>385</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="63" t="s">
-        <v>407</v>
+      <c r="A59" s="61" t="s">
+        <v>386</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="63" t="s">
-        <v>408</v>
+      <c r="A60" s="61" t="s">
+        <v>387</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="63" t="s">
-        <v>410</v>
+      <c r="A61" s="61" t="s">
+        <v>389</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="63" t="s">
-        <v>411</v>
+      <c r="A62" s="61" t="s">
+        <v>390</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="63" t="s">
-        <v>412</v>
+      <c r="A63" s="61" t="s">
+        <v>391</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="63" t="s">
-        <v>413</v>
+      <c r="A64" s="61" t="s">
+        <v>392</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="63" t="s">
-        <v>414</v>
+      <c r="A65" s="61" t="s">
+        <v>393</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="63" t="s">
-        <v>415</v>
+      <c r="A66" s="61" t="s">
+        <v>394</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="37" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="37" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E68" s="37"/>
     </row>
@@ -13690,13 +13606,13 @@
         <v>62</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E69" s="43"/>
     </row>
@@ -13705,43 +13621,43 @@
         <v>77</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E70" s="43"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="48" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="48" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E72" s="49"/>
     </row>
@@ -13786,43 +13702,43 @@
         <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="55" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="G2" s="59" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="55" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="G3" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H3" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -13838,10 +13754,10 @@
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
       <c r="G4" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="H4" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="I4">
         <v>200</v>
@@ -13857,7 +13773,7 @@
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="G5" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -13867,7 +13783,7 @@
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="G6" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -13877,7 +13793,7 @@
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="G7" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -13887,7 +13803,7 @@
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="G8" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -13897,7 +13813,7 @@
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="G9" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -13907,7 +13823,7 @@
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -13917,7 +13833,7 @@
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="G11" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -13927,7 +13843,7 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="G12" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -13937,7 +13853,7 @@
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="G13" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -13947,7 +13863,7 @@
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="G14" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -14096,18 +14012,18 @@
       <c r="A1" s="51"/>
       <c r="B1" s="51"/>
       <c r="C1" s="51" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
@@ -14115,33 +14031,33 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" t="s">
-        <v>224</v>
-      </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -14149,13 +14065,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G4">
         <v>59</v>
@@ -14163,13 +14079,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/excel/项目.xlsx
+++ b/excel/项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="30" windowWidth="19260" windowHeight="9900" tabRatio="774" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="3840" yWindow="30" windowWidth="19260" windowHeight="9900" tabRatio="774" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工程公司项目_原" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="496">
   <si>
     <t>序号</t>
   </si>
@@ -2878,10 +2878,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>contracttime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>contracttext</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2955,6 +2951,14 @@
   </si>
   <si>
     <t>projtype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyproceprepaytime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpartyproceprepayamount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10459,9 +10463,9 @@
   </sheetPr>
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10586,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>173</v>
@@ -12166,7 +12170,7 @@
         <v>288</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>283</v>
@@ -12534,8 +12538,8 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12644,7 +12648,7 @@
         <v>311</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>173</v>
@@ -12860,7 +12864,7 @@
         <v>174</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E21" s="34"/>
     </row>
@@ -12980,7 +12984,7 @@
         <v>230</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E29" s="55"/>
     </row>
@@ -13132,7 +13136,7 @@
         <v>191</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E39" s="37" t="s">
         <v>396</v>
@@ -13177,7 +13181,7 @@
         <v>356</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>191</v>
@@ -13194,7 +13198,7 @@
         <v>357</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>191</v>
@@ -13381,7 +13385,7 @@
         <v>331</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>475</v>
+        <v>196</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>191</v>
@@ -13396,13 +13400,13 @@
         <v>330</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>191</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E55" s="37"/>
     </row>
@@ -13411,7 +13415,7 @@
         <v>332</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>191</v>
@@ -13426,7 +13430,7 @@
         <v>388</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>191</v>
@@ -13441,7 +13445,7 @@
         <v>385</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>191</v>
@@ -13456,7 +13460,7 @@
         <v>386</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>191</v>
@@ -13471,7 +13475,7 @@
         <v>387</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>191</v>
@@ -13486,7 +13490,7 @@
         <v>389</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>191</v>
@@ -13501,7 +13505,7 @@
         <v>390</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>191</v>
@@ -13516,7 +13520,7 @@
         <v>391</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>191</v>
@@ -13531,7 +13535,7 @@
         <v>392</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>191</v>
@@ -13546,7 +13550,7 @@
         <v>393</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C65" s="37" t="s">
         <v>191</v>
@@ -13561,7 +13565,7 @@
         <v>394</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>191</v>
@@ -13576,7 +13580,7 @@
         <v>334</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>191</v>
@@ -13591,7 +13595,7 @@
         <v>335</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>191</v>

--- a/excel/项目.xlsx
+++ b/excel/项目.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebstormProjects\oa\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="30" windowWidth="19260" windowHeight="9900" tabRatio="774" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="3840" yWindow="30" windowWidth="19260" windowHeight="9900" tabRatio="774" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="工程公司项目_原" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,6 +18,9 @@
     <sheet name="材料表(光缆)" sheetId="8" r:id="rId9"/>
     <sheet name="施工队工作量表（光缆）" sheetId="9" r:id="rId10"/>
     <sheet name="施工队工作量表（管道）" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -34,7 +32,7 @@
     <author>韩竹君</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +442,7 @@
     <author>韩竹君</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -558,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +680,7 @@
     <author>韩竹君</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1007,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="496">
   <si>
     <t>序号</t>
   </si>
@@ -3536,7 +3534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3578,7 +3576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3613,7 +3611,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7088,6 +7086,559 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:65" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA1" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB1" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC1" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ1" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK1" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL1" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM1" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN1" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP1" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ1" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS1" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK1" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="BL1" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="BM1" s="48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB1" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC1" s="65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="19" max="19" width="13.5" customWidth="1"/>
+    <col min="20" max="20" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:71" ht="45" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z1" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF1" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="AS1" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT1" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU1" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV1" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="AW1" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX1" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY1" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="AZ1" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="BD1" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="BE1" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="BF1" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG1" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH1" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="BI1" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="BJ1" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="BK1" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="BL1" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="BM1" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN1" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="BO1" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="BP1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR1" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="BS1" s="48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10464,8 +11015,8 @@
   <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12060,7 +12611,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A12" sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12538,8 +13089,8 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
